--- a/biology/Zoologie/Cimmerosiro/Cimmerosiro.xlsx
+++ b/biology/Zoologie/Cimmerosiro/Cimmerosiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cimmerosiro est un genre d'opilions cyphophthalmes de la famille des Parasironidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Grèce, en Turquie et en Géorgie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Grèce, en Turquie et en Géorgie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (21/02/2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (21/02/2024) :
 Cimmerosiro juberthiei Karaman, Mitov &amp; Snegovaya, 2024
 Cimmerosiro krivolutskyi Karaman, Mitov &amp; Snegovaya, 2024
 Cimmerosiro rhodiensis Karaman, Mitov &amp; Snegovaya, 2024</t>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cimmerosiro a été créé en 2024 par Ivo Mladen Karaman (d), Plamen Genkov Mitov (d) et Nataly Yurievna Snegovaya (d)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cimmerosiro a été créé en 2024 par Ivo Mladen Karaman (d), Plamen Genkov Mitov (d) et Nataly Yurievna Snegovaya (d).
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Ivo M. Karaman, Plamen G. Mitov et Nataly Snegovaya, « Parasironidae fam. nov., a Cimmerian lineage of Mediterranean Cyphophthalmi (Opiliones), with the description of three new genera and four new species », European Journal of Taxonomy, France, vol. 921,‎ 2024, p. 173–209 (ISSN 2118-9773, lire en ligne).</t>
         </is>
